--- a/dados_extraido_olmOCR_6bits.xlsx
+++ b/dados_extraido_olmOCR_6bits.xlsx
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>none da pessoa</t>
+          <t>MICAELA RUBISON CORTES DE GASTOS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>matricula da pessoa</t>
+          <t>00000003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cargo da pessoa</t>
+          <t>ECONOMISTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1.047998599940911]</t>
+          <t>[4.693071600049734]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -501,24 +501,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>75ea31e2-8f26-4530-9ef8-dd5cebcc2bc7</t>
+          <t>598b1e58-a069-4726-9a08-caf3d0dd3f44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>none da pessoa</t>
+          <t>MICAELA RUBISON CORTES DE GASTOS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>matricula da pessoa</t>
+          <t>0000003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cargo da pessoa</t>
+          <t>ECONOMISTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.6091386000625789]</t>
+          <t>[4.119279500097036]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -536,14 +536,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>75ea31e2-8f26-4530-9ef8-dd5cebcc2bc7</t>
+          <t>598b1e58-a069-4726-9a08-caf3d0dd3f44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MICAELA RUBISON CORTES DE GASTOS</t>
+          <t>Micaela Rubison Cortes de Gastos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ECONOMISTA</t>
+          <t>Economista</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1.1585949000436813]</t>
+          <t>[1.0081383003853261]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>75ea31e2-8f26-4530-9ef8-dd5cebcc2bc7</t>
+          <t>598b1e58-a069-4726-9a08-caf3d0dd3f44</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.977703999960795]</t>
+          <t>[0.93222890002653]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>75ea31e2-8f26-4530-9ef8-dd5cebcc2bc7</t>
+          <t>598b1e58-a069-4726-9a08-caf3d0dd3f44</t>
         </is>
       </c>
     </row>
